--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -527,6 +527,9 @@
       <c r="C11" t="str">
         <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -588,7 +591,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201815620303010100</v>
+        <v>0201815620303010101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -528,12 +528,66 @@
         <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>607_康乃馨芙蓉_light orange_undefined_20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L20"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -591,7 +645,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201815620303010101</v>
+        <v>020181562030301010151050000000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -584,6 +584,9 @@
         <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
 white_Trachymene Coerulea_1bunch</v>
       </c>
+      <c r="F20" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -645,7 +648,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020181562030301010151050000000</v>
+        <v>020181562030301010151050000001</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -585,7 +585,7 @@
 white_Trachymene Coerulea_1bunch</v>
       </c>
       <c r="F20" t="str">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +648,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020181562030301010151050000001</v>
+        <v>0201815620303010101510500000015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -578,6 +578,9 @@
         <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
 pink_Trachymene Coerulea_1bunch</v>
       </c>
+      <c r="F19" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" xml:space="preserve">
       <c r="C20" t="str" xml:space="preserve">
@@ -648,7 +651,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201815620303010101510500000015</v>
+        <v>0201815620303010101510500000115</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -572,6 +572,9 @@
         <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
 blue_Trachymene Coerulea_1bunch</v>
       </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" xml:space="preserve">
       <c r="C19" t="str" xml:space="preserve">
@@ -579,7 +582,7 @@
 pink_Trachymene Coerulea_1bunch</v>
       </c>
       <c r="F19" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" xml:space="preserve">
@@ -651,7 +654,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201815620303010101510500000115</v>
+        <v>020181562030301010151050000101015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -573,7 +573,7 @@
 blue_Trachymene Coerulea_1bunch</v>
       </c>
       <c r="F18" t="str">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" xml:space="preserve">
@@ -654,7 +654,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020181562030301010151050000101015</v>
+        <v>02018156203030101015105000011015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -573,7 +573,7 @@
 blue_Trachymene Coerulea_1bunch</v>
       </c>
       <c r="F18" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" xml:space="preserve">
@@ -654,7 +654,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02018156203030101015105000011015</v>
+        <v>02018156203030101015105000051015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -551,6 +551,9 @@
       <c r="C14" t="str">
         <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
+      <c r="F14" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="C15" t="str">
@@ -654,7 +657,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02018156203030101015105000051015</v>
+        <v>02018156203030101015105100051015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -552,7 +552,7 @@
         <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
       <c r="F14" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02018156203030101015105100051015</v>
+        <v>020181562030301010151051000051015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -559,6 +559,9 @@
       <c r="C15" t="str">
         <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
+      <c r="F15" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="C16" t="str">
@@ -657,7 +660,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020181562030301010151051000051015</v>
+        <v>020181562030301010151051010051015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -560,7 +560,7 @@
         <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
       <c r="F15" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -660,7 +660,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020181562030301010151051010051015</v>
+        <v>0201815620303010101510510100051015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -567,6 +567,9 @@
       <c r="C16" t="str">
         <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
       </c>
+      <c r="F16" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
@@ -660,7 +663,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201815620303010101510510100051015</v>
+        <v>0201815620303010101510510101051015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -568,12 +568,15 @@
         <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
       </c>
       <c r="F16" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
         <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="18" xml:space="preserve">
@@ -663,7 +666,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201815620303010101510510101051015</v>
+        <v>02018156203030101015105101010551015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -606,9 +606,49 @@
         <v>15</v>
       </c>
     </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L25"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -666,7 +706,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02018156203030101015105101010551015</v>
+        <v>02018156203030101015105101010551015101010510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-21.xlsx
@@ -708,6 +708,9 @@
       <c r="G2" t="str">
         <v>02018156203030101015105101010551015101010510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
